--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R086f26a90041422a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R72fa5fe28e3542be"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R72fa5fe28e3542be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R10ac8bdd78474b26"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R10ac8bdd78474b26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R3bf1fbf3b4164786"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R3bf1fbf3b4164786"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R3c37c59a8b8f4976"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R3c37c59a8b8f4976"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rc5c9509d905d46da"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="Rc5c9509d905d46da"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R2cbcffa60003468c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R2cbcffa60003468c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R6e0ebd4c15ca4805"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R6e0ebd4c15ca4805"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R94a7334046a24bd0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R94a7334046a24bd0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R7b653ccde3fe4c65"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R7b653ccde3fe4c65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R527718a5d94a4f90"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R527718a5d94a4f90"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R994a84c33ce84f5b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,1112 +30,1112 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="222">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R994a84c33ce84f5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R3600222fe7b34b36"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,1112 +30,1112 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="222">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/078_BuiltInColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R3600222fe7b34b36"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Built-in Colors" sheetId="1" r:id="R53b27b8a10154431"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
